--- a/data/trans_bre/P44D-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P44D-Habitat-trans_bre.xlsx
@@ -636,16 +636,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-19.29378444634949</v>
+        <v>-18.91424287779128</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>-2.60495354184445</v>
+        <v>-2.615006442905327</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.7229024548727153</v>
+        <v>-0.6784862856895567</v>
       </c>
     </row>
     <row r="6">
@@ -656,11 +656,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.41226913638527</v>
+        <v>12.23762829003869</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>4.882039353422603</v>
+        <v>4.694007455743855</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>-0.00937805815870426</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2371132632937911</v>
+        <v>-0.237113263293791</v>
       </c>
     </row>
     <row r="8">
@@ -704,20 +704,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-25.44676101865904</v>
+        <v>-24.89603381971868</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-17.26040814623073</v>
+        <v>-16.24859937622245</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-6.818628819877793</v>
-      </c>
-      <c r="F8" s="6" t="inlineStr"/>
+        <v>-6.838669131907979</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7967342472903272</v>
+        <v>-0.7943967187854722</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6776958870068042</v>
+        <v>-0.6907677360398983</v>
       </c>
     </row>
     <row r="9">
@@ -728,20 +730,20 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.45632583050638</v>
+        <v>15.47388688322535</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>19.9509518790121</v>
+        <v>19.71931047003641</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.967403211003839</v>
+        <v>2.743971410720808</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="n">
-        <v>2.866175859764479</v>
+        <v>2.997426053462867</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8272487863128942</v>
+        <v>0.697035826387245</v>
       </c>
     </row>
     <row r="10">
@@ -762,7 +764,7 @@
         <v>5.712212539541428</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.234194230510078</v>
+        <v>-2.234194230510075</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>2.562153121286296</v>
@@ -771,7 +773,7 @@
         <v>0.5351792913850747</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.1470921315742425</v>
+        <v>-0.1470921315742423</v>
       </c>
     </row>
     <row r="11">
@@ -782,22 +784,18 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.112521155859175</v>
+        <v>0.1818036154179979</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.52898160695762</v>
+        <v>-12.56941575144269</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.65216979475513</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>-0.5124251853297681</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-10.60325184419287</v>
+      </c>
+      <c r="F11" s="6" t="inlineStr"/>
+      <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.5841382466345054</v>
+        <v>-0.5478145738795729</v>
       </c>
     </row>
     <row r="12">
@@ -808,18 +806,18 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>44.06092126494264</v>
+        <v>42.14523122017123</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>30.54465906210068</v>
+        <v>29.2377237303126</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.644108857625012</v>
+        <v>6.419407354082865</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>0.5817853524969824</v>
+        <v>0.6575714270082886</v>
       </c>
     </row>
     <row r="13">
@@ -860,22 +858,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-18.32894305224777</v>
+        <v>-17.44377761496168</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-25.53947283698898</v>
+        <v>-26.6301918506339</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.914423039213194</v>
+        <v>-9.975615862020414</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6907267023641551</v>
+        <v>-0.6700657092947692</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8609420616103112</v>
+        <v>-0.8769326492138558</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6095522601565616</v>
+        <v>-0.5965953949414101</v>
       </c>
     </row>
     <row r="15">
@@ -886,22 +884,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>30.03575771885201</v>
+        <v>28.52727327361912</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.927548988746255</v>
+        <v>7.776124554514197</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.228879044783897</v>
+        <v>0.008407090692182529</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.102300801186832</v>
+        <v>3.158933754568731</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6640727832419019</v>
+        <v>0.6693537203202656</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03419447323909017</v>
+        <v>0.04757341595794811</v>
       </c>
     </row>
     <row r="16">
@@ -922,7 +920,7 @@
         <v>-3.14147751221779</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.555809878932862</v>
+        <v>-2.55580987893286</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.378459936785751</v>
@@ -931,7 +929,7 @@
         <v>-0.2160289914528093</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.2602369038381183</v>
+        <v>-0.2602369038381181</v>
       </c>
     </row>
     <row r="17">
@@ -942,22 +940,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.371601004566834</v>
+        <v>-7.090993664596581</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.63397358840619</v>
+        <v>-10.75251307220491</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.645107134798737</v>
+        <v>-5.379643043703211</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.3929330458650014</v>
+        <v>-0.4004687745123901</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6309101549036558</v>
+        <v>-0.6300528886656961</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4846473022822776</v>
+        <v>-0.453228074401216</v>
       </c>
     </row>
     <row r="18">
@@ -968,22 +966,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.14318527877999</v>
+        <v>15.22963519761536</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.619912687473734</v>
+        <v>6.283829238670717</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2968519971270174</v>
+        <v>0.3057017477394988</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.963833638914511</v>
+        <v>1.931583658086969</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.557041946550409</v>
+        <v>0.5682830925228831</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04176807531060499</v>
+        <v>0.06349010160098363</v>
       </c>
     </row>
     <row r="19">
